--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -3050,7 +3050,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -3490,9 +3490,21 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store, bring Modas Equip</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3594,11 +3606,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3633,7 +3641,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3682,7 +3690,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3731,7 +3739,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>CONDON OIL #130, OSHKOSH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3776,7 +3784,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>1424 S MAIN ST</t>
+          <t>CONDON OIL #130, OSHKOSH</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3821,7 +3829,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
+          <t>1424 S MAIN ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3866,7 +3874,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3907,7 +3915,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3956,7 +3964,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>CONDON OIL #140, OSHKOSH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -4018,7 +4026,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>811 MERRITT AVE</t>
+          <t>CONDON OIL #140, OSHKOSH</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -4075,7 +4083,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qn7QFZkshX32</t>
+          <t>811 MERRITT AVE</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -4122,7 +4130,11 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qn7QFZkshX32</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -4166,21 +4178,9 @@
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -4213,17 +4213,17 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>1st Condon</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -4271,18 +4271,17 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>1st Condon</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -4323,9 +4322,22 @@
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -847,7 +847,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
+          <t>5:30 AM MEET AT BROWN DEER PARK AND RIDE</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -900,10 +900,14 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>https://maps.app.goo.gl/JwjqtDcEqTGm1bTq5</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>LINK TO &lt;--MEET</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
@@ -953,7 +957,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1006,7 +1010,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>FESTIVAL #2702, MANITOWOC - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1059,7 +1063,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2151 S 42ND ST</t>
+          <t>FESTIVAL #2702, MANITOWOC - LIFO</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1112,7 +1116,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ynTuKFekbGQ2</t>
+          <t>2151 S 42ND ST</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -1163,7 +1167,11 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ynTuKFekbGQ2</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1211,21 +1219,13 @@
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>with the Silver Spring Rd under construction, we will be using the Brown Deer Rd Park n Ride</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
@@ -1306,16 +1306,8 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
@@ -1395,18 +1387,17 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1486,19 +1477,15 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1576,18 +1563,18 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2nd week,
-work w/ Carlie</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1672,18 +1659,17 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1763,18 +1749,18 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3rd week,
-work w/ Leyna</t>
+          <t>2nd week,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1841,17 +1827,18 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1919,17 +1906,18 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>3rd week,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2001,15 +1989,19 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -2070,15 +2062,19 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -2146,8 +2142,16 @@
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -2207,8 +2211,16 @@
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -2257,11 +2269,7 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>5:15 AM WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -2314,11 +2322,7 @@
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -2373,7 +2377,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>5:45 AM MEET AT BROWN DEER PARK AND RIDE</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2443,10 +2447,14 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>https://maps.app.goo.gl/JwjqtDcEqTGm1bTq5</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>LINK TO &lt;--MEET</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
@@ -2504,7 +2512,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>2219 GARFIELD STREET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2577,7 +2585,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2648,7 +2656,11 @@
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2704,22 +2716,13 @@
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>2219 GARFIELD STREET</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -2786,14 +2789,10 @@
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2908,9 +2907,22 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2953,10 +2965,14 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>5:30 AM WATERTOWN PLANK MEET</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -3003,11 +3019,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -3048,11 +3060,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -3107,7 +3115,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>FIRESIDE MARKET, SLINGER</t>
+          <t>5:30 AM WATERTOWN PLANK MEET</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -3165,7 +3173,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>820 HETZEL WY</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -3210,7 +3218,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/HRhwR9YjWUjm58db6</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3249,7 +3257,11 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>FIRESIDE MARKET, SLINGER</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3301,22 +3313,13 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+          <t>820 HETZEL WY</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -3363,14 +3366,10 @@
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>https://maps.app.goo.gl/HRhwR9YjWUjm58db6</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3412,16 +3411,8 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3492,17 +3483,18 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>@ Store, bring Modas Equip</t>
+          <t>Driver,
+Wht Camry, Equip</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -3572,8 +3564,16 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3605,8 +3605,16 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3638,13 +3646,21 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>5:30 AM OFFICE MEET</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store, bring Modas Equip</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3688,11 +3704,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3737,11 +3749,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3784,7 +3792,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>CONDON OIL #130, OSHKOSH</t>
+          <t>5:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3829,7 +3837,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>1424 S MAIN ST</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3874,7 +3882,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3915,7 +3923,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>CONDON OIL #130, OSHKOSH</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3964,7 +3972,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1424 S MAIN ST</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -4026,7 +4034,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>CONDON OIL #140, OSHKOSH</t>
+          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -4083,7 +4091,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>811 MERRITT AVE</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -4132,7 +4140,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qn7QFZkshX32</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -4179,7 +4187,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>CONDON OIL #140, OSHKOSH</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -4211,21 +4223,13 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>811 MERRITT AVE</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -4269,21 +4273,13 @@
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>1st Condon</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/qn7QFZkshX32</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4322,22 +4318,9 @@
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4368,9 +4351,21 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -4401,9 +4396,21 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>1st Condon</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4434,9 +4441,22 @@
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -4071,7 +4071,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -4609,13 +4609,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2nd week,
-work w/ Carlie</t>
+          <t>*Until 11:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -4655,10 +4654,15 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2nd week,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,10 +1317,14 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Brianna E</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2nd Day, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
@@ -1408,14 +1412,10 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
@@ -1494,10 +1494,14 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
@@ -1585,15 +1589,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>2nd week,
-work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -1680,13 +1679,13 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Until 11:30,
-Trainer</t>
+          <t>2nd week,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1771,12 +1770,13 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Jerry</t>
+          <t>Until 11:30,
+Trainer</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1849,10 +1849,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Katelyn</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>3rd week, work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -1928,7 +1932,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -2010,7 +2014,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -2083,12 +2087,12 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sara S</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Jerry</t>
+          <t>2nd Day, work w/ Carlie</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -2154,8 +2158,16 @@
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -2223,9 +2235,21 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>3rd week, work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -2273,11 +2297,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -2326,11 +2346,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>SCAN-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2385,7 +2401,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>STARK FOODS SUPER MARKET, MILWAUKEE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2440,7 +2456,8 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2459,7 +2476,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>6315 W. FOND DU LAC AVENUE</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2520,7 +2537,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ixY6NaY5NrRjZXJw7</t>
+          <t>STARK FOODS SUPER MARKET, MILWAUKEE</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2593,7 +2610,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>ALCOHOL COUNT ONLY</t>
+          <t>6315 W. FOND DU LAC AVENUE</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2664,7 +2681,11 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ixY6NaY5NrRjZXJw7</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2712,7 +2733,8 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
@@ -2724,21 +2746,13 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Wht Camry available, Equip</t>
-        </is>
-      </c>
+          <t>ALCOHOL COUNT ONLY</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -2797,16 +2811,8 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2868,15 +2874,19 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Wht Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -2926,12 +2936,12 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2977,8 +2987,16 @@
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -3022,8 +3040,16 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -4807,6 +4833,793 @@
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>SCAN-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>PICK #381, MUSKEGO</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>S74 W17005 JANESVILLE ROAD</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/H8srKt8FVUp</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Brianna E</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>1st Day, work w/ Qiana</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Sara S</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>1st Day, work w/ Michael</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -1807,7 +1807,11 @@
           <t>Sonia</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -941,7 +941,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>KARL'S COUNTRY MARKET, MENOMONEE FALLS</t>
+          <t>KARL'S COUNTRY MART GAS STATION, MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -994,7 +994,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>W156 N5645 PILGRIM RD</t>
+          <t>N56 W15654 SILVER SPRING DR</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1047,7 +1047,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zL8HEmfSEtR2</t>
+          <t>https://maps.app.goo.gl/eVhY1gyT1JDFaLmT9</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1157,7 +1157,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 8:45 AM - 9:00 AM START</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1198,7 +1198,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>KARL'S COUNTRY MART GAS STATION, MENOMONEE FALLS</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1289,7 +1289,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>N56 W15654 SILVER SPRING DR</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1367,7 +1367,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/eVhY1gyT1JDFaLmT9</t>
+          <t>BELGIUM PLAZA BP</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1456,7 +1456,11 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>105 LAKE VIEW DR</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
@@ -1532,21 +1536,13 @@
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/MKp7kkyQRVt8UT5Z6</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1632,16 +1628,8 @@
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
@@ -1720,15 +1708,19 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1813,8 +1805,16 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
@@ -1896,8 +1896,16 @@
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
@@ -1976,11 +1984,7 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>6:30 AM SOUTH RACINE COURT (HWYS 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
@@ -2049,11 +2053,7 @@
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
@@ -2128,7 +2128,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:30 AM SOUTH RACINE COURT (HWYS 43 &amp; Y)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2206,7 +2206,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>MILLGATE GENERAL STORE, BURLINGTON</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2275,7 +2275,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>151 MILLGATE DR</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2324,7 +2324,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JmyTfGd26bD2FKyR8</t>
+          <t>MILLGATE GENERAL STORE, BURLINGTON</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2375,7 +2375,11 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>151 MILLGATE DR</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
@@ -2431,22 +2435,13 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/JmyTfGd26bD2FKyR8</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
@@ -2502,16 +2497,8 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -2577,15 +2564,20 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
@@ -2650,12 +2642,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2721,8 +2713,16 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
@@ -2787,8 +2787,16 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2849,11 +2857,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
@@ -2910,11 +2914,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2970,7 +2970,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>MOBIL, ROCK SPRINGS</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>103 W BROADWAY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -3129,7 +3129,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/fA4V6XRVvDiKtY9N7</t>
+          <t>MOBIL, ROCK SPRINGS</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -3187,7 +3187,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>103 W BROADWAY</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3232,7 +3232,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://maps.app.goo.gl/fA4V6XRVvDiKtY9N7</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -3273,7 +3273,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>MOBIL, POYNETTE</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3330,7 +3330,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>523 N HWY 51</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3383,7 +3383,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/RayiKJXDarmQnuwC7</t>
+          <t>MOBIL, POYNETTE</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3434,7 +3434,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>523 N HWY 51</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3478,22 +3482,13 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Santa Fe, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/RayiKJXDarmQnuwC7</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
@@ -3561,21 +3556,9 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Driver, 1/2</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3627,9 +3610,22 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3668,9 +3664,21 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Driver, 1/2</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -3718,11 +3726,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3763,11 +3767,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3808,7 +3808,11 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3853,7 +3857,11 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -1157,7 +1157,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>APPROX 8:45 AM - 9:00 AM START</t>
+          <t>APPROX 9:30 AM START</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Bag 5</t>
+          <t>Bag 14</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -706,7 +706,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Bag 5</t>
+          <t>Bag 14</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -1307,7 +1307,11 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>*Carlie and Sonia to meet at 5:30 am in Grafton</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
@@ -1389,21 +1393,9 @@
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1481,15 +1473,19 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1563,20 +1559,15 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1646,17 +1637,18 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store, with Sonia
+Trainer</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1740,18 +1732,17 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2nd week,
-work w/ Carlie</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1831,18 +1822,18 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>2nd week,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1922,18 +1913,18 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>3rd week,
-work w/ Leyna</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2001,17 +1992,18 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>3rd week,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -2070,17 +2062,17 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -2152,15 +2144,19 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -2229,12 +2225,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -2296,9 +2292,21 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>@ Store, with Carlie</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -2399,11 +2407,7 @@
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>5:45 AM MEET AT BROWN DEER PARK AND RIDE</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -2463,14 +2467,10 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/JwjqtDcEqTGm1bTq5</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>LINK TO &lt;--MEET</t>
-        </is>
-      </c>
+          <t>5:45 AM MEET AT BROWN DEER PARK AND RIDE</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
@@ -2520,10 +2520,14 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
+          <t>https://maps.app.goo.gl/JwjqtDcEqTGm1bTq5</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>LINK TO &lt;--MEET</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
@@ -2598,7 +2602,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2671,7 +2675,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2745,7 +2749,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>2219 GARFIELD STREET</t>
+          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2818,7 +2822,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
+          <t>2219 GARFIELD STREET</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2877,7 +2881,11 @@
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
@@ -2921,22 +2929,9 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2981,15 +2976,20 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
@@ -3040,8 +3040,16 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
@@ -3143,11 +3151,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>5:30 AM WATERTOWN PLANK MEET</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -3203,7 +3207,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM WATERTOWN PLANK MEET</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -3248,7 +3252,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3289,7 +3293,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>FIRESIDE MARKET, SLINGER</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3346,7 +3350,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>820 HETZEL WY</t>
+          <t>FIRESIDE MARKET, SLINGER</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3399,7 +3403,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/HRhwR9YjWUjm58db6</t>
+          <t>820 HETZEL WY</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3446,7 +3450,11 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/HRhwR9YjWUjm58db6</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3506,22 +3514,9 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3579,15 +3574,20 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3633,12 +3633,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3686,19 +3686,15 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store, bring Modas Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3737,9 +3733,21 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>@ Store, bring Modas Equip</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3824,11 +3832,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3875,7 +3879,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3920,7 +3924,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3961,7 +3965,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>CONDON OIL #130, OSHKOSH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -4010,7 +4014,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>1424 S MAIN ST</t>
+          <t>CONDON OIL #130, OSHKOSH</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -4072,7 +4076,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
+          <t>1424 S MAIN ST</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -4129,7 +4133,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -4178,7 +4182,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -4227,7 +4231,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>CONDON OIL #140, OSHKOSH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4264,7 +4268,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>811 MERRITT AVE</t>
+          <t>CONDON OIL #140, OSHKOSH</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4314,7 +4318,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qn7QFZkshX32</t>
+          <t>811 MERRITT AVE</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4357,7 +4361,11 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qn7QFZkshX32</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -4389,21 +4397,9 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -4436,17 +4432,17 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>1st Condon</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
@@ -4481,18 +4477,17 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>1st Condon</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
@@ -4537,9 +4532,22 @@
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -831,7 +831,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET WATERTOWN PLANK (Katherine/Paul)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -884,7 +884,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>KARL'S COUNTRY MART GAS STATION, MENOMONEE FALLS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -994,7 +994,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N56 W15654 SILVER SPRING DR</t>
+          <t>KARL'S COUNTRY MART GAS STATION, MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1047,7 +1047,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/eVhY1gyT1JDFaLmT9</t>
+          <t>N56 W15654 SILVER SPRING DR</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1100,7 +1100,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://maps.app.goo.gl/eVhY1gyT1JDFaLmT9</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1157,7 +1157,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>APPROX 9:30 AM START</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1198,7 +1198,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>APPROX 9:30 AM START</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1289,7 +1289,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>BELGIUM PLAZA BP</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1450,7 +1450,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>105 LAKE VIEW DR</t>
+          <t>BELGIUM PLAZA BP</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1535,7 +1535,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/MKp7kkyQRVt8UT5Z6</t>
+          <t>105 LAKE VIEW DR</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1620,7 +1620,11 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/MKp7kkyQRVt8UT5Z6</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
@@ -1698,21 +1702,9 @@
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1798,15 +1790,19 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1889,15 +1885,19 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1974,8 +1974,16 @@
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
@@ -2118,11 +2126,7 @@
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>6:30 AM SOUTH RACINE COURT (HWYS 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
@@ -2202,7 +2206,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM SOUTH RACINE COURT (HWYS 43 &amp; Y)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2271,7 +2275,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2332,7 +2336,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>MILLGATE GENERAL STORE, BURLINGTON</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2385,7 +2389,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>151 MILLGATE DR</t>
+          <t>MILLGATE GENERAL STORE, BURLINGTON</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2442,7 +2446,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JmyTfGd26bD2FKyR8</t>
+          <t>151 MILLGATE DR</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2498,7 +2502,11 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JmyTfGd26bD2FKyR8</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -2566,22 +2574,9 @@
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
@@ -2646,15 +2641,20 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
@@ -2719,12 +2719,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2793,12 +2793,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2860,8 +2860,16 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
@@ -2963,11 +2971,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -3027,7 +3031,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -3084,7 +3088,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -3137,7 +3141,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>MOBIL, ROCK SPRINGS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -3191,7 +3195,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>103 W BROADWAY</t>
+          <t>MOBIL, ROCK SPRINGS</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3236,7 +3240,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/fA4V6XRVvDiKtY9N7</t>
+          <t>103 W BROADWAY</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -3277,7 +3281,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://maps.app.goo.gl/fA4V6XRVvDiKtY9N7</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3334,7 +3338,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3387,7 +3391,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>MOBIL, POYNETTE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3440,7 +3444,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>523 N HWY 51</t>
+          <t>MOBIL, POYNETTE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3493,7 +3497,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/RayiKJXDarmQnuwC7</t>
+          <t>523 N HWY 51</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3552,7 +3556,11 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/RayiKJXDarmQnuwC7</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
@@ -3610,22 +3618,9 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3666,17 +3661,18 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Driver, 1/2</t>
+          <t>Driver, 1/2
+Santa Fe, Equip</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3721,9 +3717,21 @@
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Driver, 1/2</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -3816,11 +3824,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3863,7 +3867,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3910,7 +3914,11 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA98"/>
+  <dimension ref="A1:AA96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Jerry</t>
+          <t>3rd week, work w/ Carlie</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -2091,14 +2091,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sara S</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>2nd Day, work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -2169,10 +2165,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>3rd week, work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -2239,21 +2239,9 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>3rd week, work w/ Jerry</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -2362,7 +2350,11 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2417,7 +2409,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2479,7 +2471,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>STARK FOODS SUPER MARKET, MILWAUKEE</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2540,7 +2532,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>STARK FOODS SUPER MARKET, MILWAUKEE</t>
+          <t>6315 W. FOND DU LAC AVENUE</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2605,7 +2597,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6315 W. FOND DU LAC AVENUE</t>
+          <t>https://maps.app.goo.gl/ixY6NaY5NrRjZXJw7</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2683,7 +2675,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ixY6NaY5NrRjZXJw7</t>
+          <t>ALCOHOL COUNT ONLY</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2755,11 +2747,7 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>ALCOHOL COUNT ONLY</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2827,9 +2815,21 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Wht Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -2898,19 +2898,15 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Wht Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -2943,12 +2939,12 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2997,12 +2993,12 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -3056,16 +3052,8 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -5215,12 +5203,12 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Sara S</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>1st Day, work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
@@ -5256,7 +5244,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -5297,7 +5285,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -5338,7 +5326,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -5379,7 +5367,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -5420,7 +5408,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -5461,7 +5449,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -5502,7 +5490,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -5543,12 +5531,13 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
@@ -5564,90 +5553,6 @@
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -1326,7 +1326,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2nd Day, work w/ Leyna</t>
+          <t>2nd Day, work w/ Carlie</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Carlie</t>
+          <t>3rd week, work w/ Leyna</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -2025,7 +2025,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -1729,14 +1729,10 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1823,13 +1819,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2nd week,
-work w/ Carlie</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1918,13 +1913,13 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>2nd week,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2005,13 +2000,13 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>3rd week,
-work w/ Leyna</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -2079,12 +2074,13 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>3rd week,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -2153,12 +2149,13 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -2238,10 +2235,14 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -2295,12 +2296,12 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store, with Carlie</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2349,14 +2350,22 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM WATERTOWN PLANK MEET</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2406,14 +2415,22 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2464,18 +2481,26 @@
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>5:45 AM MEET AT BROWN DEER PARK AND RIDE</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>@ Store, with Carlie</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>STARK FOODS SUPER MARKET, MILWAUKEE</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2522,21 +2547,13 @@
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/JwjqtDcEqTGm1bTq5</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>LINK TO &lt;--MEET</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6315 W. FOND DU LAC AVENUE</t>
+          <t>FIRESIDE MARKET, SLINGER</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2591,17 +2608,13 @@
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ixY6NaY5NrRjZXJw7</t>
+          <t>820 HETZEL WY</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2671,7 +2684,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>5:45 AM MEET AT BROWN DEER PARK AND RIDE</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2679,7 +2692,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>ALCOHOL COUNT ONLY</t>
+          <t>https://maps.app.goo.gl/HRhwR9YjWUjm58db6</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2745,10 +2758,14 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>https://maps.app.goo.gl/JwjqtDcEqTGm1bTq5</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>LINK TO &lt;--MEET</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -2814,7 +2831,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>2219 GARFIELD STREET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2831,7 +2848,8 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Wht Camry available, Equip</t>
+          <t>Driver,
+Wht Camry, Equip</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2895,7 +2913,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2938,7 +2956,11 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1250, TWO RIVERS</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
@@ -2978,22 +3000,13 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>2219 GARFIELD STREET</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
@@ -3044,14 +3057,10 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>https://goo.gl/maps/S9a2S4Cm7JD2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -3146,9 +3155,22 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -3200,10 +3222,14 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>5:30 AM WATERTOWN PLANK MEET</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -3246,11 +3272,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -3287,11 +3309,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3346,7 +3364,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>FIRESIDE MARKET, SLINGER</t>
+          <t>5:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3399,7 +3417,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>820 HETZEL WY</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3448,7 +3466,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/HRhwR9YjWUjm58db6</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3511,7 +3529,11 @@
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>CONDON OIL #130, OSHKOSH</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3572,22 +3594,13 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+          <t>1424 S MAIN ST</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3618,14 +3631,10 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3672,14 +3681,10 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3733,21 +3738,13 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store, bring Modas Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3787,7 +3784,11 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>CONDON OIL #140, OSHKOSH</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3828,7 +3829,11 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>811 MERRITT AVE</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3875,7 +3880,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>5:30 AM OFFICE MEET</t>
+          <t>https://goo.gl/maps/qn7QFZkshX32</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3922,11 +3927,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3962,13 +3963,21 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -4011,13 +4020,21 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>CONDON OIL #130, OSHKOSH</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>1st Condon</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -4073,13 +4090,22 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>1424 S MAIN ST</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -4131,11 +4157,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/d7jG6yoK1sz</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -4180,11 +4202,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -4229,11 +4247,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -4266,11 +4280,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>CONDON OIL #140, OSHKOSH</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -4316,11 +4326,7 @@
       </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>811 MERRITT AVE</t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -4361,11 +4367,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/qn7QFZkshX32</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -4430,21 +4432,9 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4475,21 +4465,9 @@
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>1st Condon</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -4532,22 +4510,9 @@
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -1576,10 +1576,15 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>2nd week,
+work w/ Leyna</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -1663,13 +1668,13 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>2nd week,
-work w/ Leyna</t>
+          <t>Until 11:30,
+Trainer</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1741,13 +1746,12 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Until 11:30,
-Trainer</t>
+          <t>3rd week, work w/ Leyna</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1835,14 +1839,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>3rd week, work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -1930,10 +1930,14 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -2017,14 +2021,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -2973,7 +2973,11 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Bag 14</t>
+          <t>Bag 12</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>

--- a/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
+++ b/09-28-25 to 10-04-25 Milwaukee Schedule.xlsx
@@ -1419,7 +1419,12 @@
           <t>Katherine</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 11:00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
